--- a/ofcom_k-modes_description.xlsx
+++ b/ofcom_k-modes_description.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,170 +469,150 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Large User</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Income</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Mode Income</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -645,112 +625,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="C2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="D2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="E2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="F2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="G2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="H2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="I2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="J2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="K2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="L2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="M2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="N2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="O2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="P2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="Q2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="R2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="S2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="T2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="U2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="V2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="W2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="X2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="Y2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="Z2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="AA2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="AB2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="AC2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="AD2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="AE2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="AF2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
       <c r="AG2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1298</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="3">
@@ -760,111 +728,99 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3725.117873651772</v>
+        <v>3668.235214140041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1163328197226502</v>
+        <v>0.08565601631543168</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001540832049306626</v>
+        <v>5.775662814411965</v>
       </c>
       <c r="E3" t="n">
-        <v>10.12095531587057</v>
+        <v>1.033310673011557</v>
       </c>
       <c r="F3" t="n">
-        <v>1.75808936825886</v>
+        <v>2.970088375254929</v>
       </c>
       <c r="G3" t="n">
-        <v>10.13097072419106</v>
+        <v>0.8565601631543168</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4473147518694766</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9768875192604006</v>
+        <v>0.3127124405166553</v>
       </c>
       <c r="J3" t="n">
-        <v>0.273497688751926</v>
+        <v>0.1937457511896669</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1710323574730354</v>
+        <v>0.09653297076818491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.12557781201849</v>
+        <v>0.02447314751869476</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07395993836671803</v>
+        <v>0.005438477226376614</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04160246533127889</v>
+        <v>0.9646498980285521</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01540832049306626</v>
+        <v>2.805574439157036</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003081664098613251</v>
+        <v>0.8463630183548606</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.89060092449923</v>
+        <v>0.4636301835486064</v>
       </c>
       <c r="R3" t="n">
-        <v>0.238828967642527</v>
+        <v>0.2726036709721278</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7812018489984591</v>
+        <v>0.1672331747110809</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2110939907550077</v>
+        <v>0.07205982324949015</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1494607087827427</v>
+        <v>0.01563562202583277</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09244992295839753</v>
+        <v>0.003399048266485384</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04776579352850539</v>
+        <v>4.220258327668253</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02773497688751926</v>
+        <v>7.65329707681849</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01155624036979969</v>
+        <v>5.434398368456832</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002311248073959939</v>
+        <v>4.441196464989803</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.987673343605547</v>
+        <v>9.291638341264447</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.010015408320493</v>
+        <v>5.676410605030592</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.572419106317411</v>
+        <v>56323.79327976207</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.087057010785824</v>
+        <v>49825.64999885792</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.544684129429892</v>
+        <v>59891.23045547247</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.858243451463791</v>
+        <v>32091.18622172399</v>
       </c>
       <c r="AG3" t="n">
-        <v>58763.02003081664</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>52345.18457685671</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>63748.07395993837</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34100.93282453236</v>
-      </c>
-      <c r="AK3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -875,111 +831,99 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2211.663440540069</v>
+        <v>2574.759898800936</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3207471811549935</v>
+        <v>0.2799506053908033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03923829828563734</v>
+        <v>4.571723854210106</v>
       </c>
       <c r="E4" t="n">
-        <v>13.51026937473126</v>
+        <v>0.8078558911288495</v>
       </c>
       <c r="F4" t="n">
-        <v>4.158950558353149</v>
+        <v>2.645582107223674</v>
       </c>
       <c r="G4" t="n">
-        <v>14.15836564149654</v>
+        <v>0.7888397552565227</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7672229837210577</v>
+        <v>0.6987193792445535</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26285527044974</v>
+        <v>0.6205945565728477</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6698187423796631</v>
+        <v>0.4500812178490752</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5326870079615517</v>
+        <v>0.32606947858481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4306409995598617</v>
+        <v>0.1589056252869655</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3433472203716343</v>
+        <v>0.0735702366162759</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2217082812339294</v>
+        <v>0.6619707716472804</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1293237067133148</v>
+        <v>2.331738175287804</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05544849968114013</v>
+        <v>0.751089024383791</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.07949803066425</v>
+        <v>0.7132393358596997</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6233462438571168</v>
+        <v>0.5664581016383161</v>
       </c>
       <c r="S4" t="n">
-        <v>2.121204274760584</v>
+        <v>0.4196375493249523</v>
       </c>
       <c r="T4" t="n">
-        <v>0.635714404275608</v>
+        <v>0.2977942250957478</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5246466832530052</v>
+        <v>0.1241032615176721</v>
       </c>
       <c r="V4" t="n">
-        <v>0.412699342497179</v>
+        <v>0.05822198172130669</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2620106715048953</v>
+        <v>3.930227902016987</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1862703385883472</v>
+        <v>6.471348759582343</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1069181962513034</v>
+        <v>3.696239994504812</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04803836053715833</v>
+        <v>4.214863842042051</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.375475382551245</v>
+        <v>8.392979214982461</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.601579645563494</v>
+        <v>3.780721905653397</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.264454553874919</v>
+        <v>15720.66764231635</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.568382808174532</v>
+        <v>15017.67080226532</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.428535335048362</v>
+        <v>40477.02461498657</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.358313634328176</v>
+        <v>10545.70172286867</v>
       </c>
       <c r="AG4" t="n">
-        <v>15940.52808381715</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15317.59074196468</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>40335.45842062832</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10946.39191598993</v>
-      </c>
-      <c r="AK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -996,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1035,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1071,30 +1015,18 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>13314.23895</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>7499.999999999999</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>8340.874811</v>
       </c>
       <c r="AG5" t="n">
-        <v>15300</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12905.13834</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7499.999999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8140.794224</v>
-      </c>
-      <c r="AK5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1105,22 +1037,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1893.5</v>
+        <v>1295.5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1141,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1168,48 +1100,36 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>44500</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>38417.194095</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>22500</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>24119.183285</v>
       </c>
       <c r="AG6" t="n">
-        <v>47799.99999999999</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41802.12766</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>32500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>25991.44758</v>
-      </c>
-      <c r="AK6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1220,111 +1140,99 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3530</v>
+        <v>3118</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
         <v>7</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.999999999999999</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
       <c r="AB7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>58300</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>51213.87283</v>
       </c>
       <c r="AE7" t="n">
-        <v>3</v>
+        <v>42500</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>32773.10924</v>
       </c>
       <c r="AG7" t="n">
-        <v>60650</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>53541.66667000001</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>42500</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34480.286735</v>
-      </c>
-      <c r="AK7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1335,25 +1243,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5639.75</v>
+        <v>6132</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1371,75 +1279,63 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5</v>
+      </c>
+      <c r="X8" t="n">
         <v>10</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>4</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>68150</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>60988.43409</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>110000</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>39758.033105</v>
       </c>
       <c r="AG8" t="n">
-        <v>70200</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>63147.2629625</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>41742.922145</v>
-      </c>
-      <c r="AK8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1456,105 +1352,93 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
-        <v>162</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
         <v>6</v>
       </c>
-      <c r="K9" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="X9" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="n">
-        <v>31</v>
+        <v>91300</v>
       </c>
       <c r="AD9" t="n">
-        <v>46</v>
+        <v>83571.42857</v>
       </c>
       <c r="AE9" t="n">
-        <v>78</v>
+        <v>110000</v>
       </c>
       <c r="AF9" t="n">
-        <v>37</v>
+        <v>57600</v>
       </c>
       <c r="AG9" t="n">
-        <v>93700</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>85000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>58709.67742</v>
-      </c>
-      <c r="AK9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1569,7 +1453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1590,170 +1474,150 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Large User</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Income</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Mode Income</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -1766,112 +1630,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="C2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="D2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="E2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="F2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="G2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="H2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="I2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="J2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="K2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="L2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="M2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="N2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="O2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="P2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="Q2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="R2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="S2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="T2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="U2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="V2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="W2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="X2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="Y2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="Z2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="AA2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="AB2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="AC2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="AD2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="AE2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
       <c r="AG2" t="n">
-        <v>1322</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1322</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1322</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1322</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1322</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3">
@@ -1881,111 +1733,99 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3802.180030257186</v>
+        <v>3795.457239627434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08774583963691376</v>
+        <v>0.1117696867061812</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.584250635055038</v>
       </c>
       <c r="E3" t="n">
-        <v>18.8963691376702</v>
+        <v>0.3158340389500424</v>
       </c>
       <c r="F3" t="n">
-        <v>4.613464447806354</v>
+        <v>0.9534292972057579</v>
       </c>
       <c r="G3" t="n">
-        <v>18.51739788199697</v>
+        <v>0.2303132938187976</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9084720121028744</v>
+        <v>0.1541066892464014</v>
       </c>
       <c r="I3" t="n">
-        <v>2.315431164901664</v>
+        <v>0.1253175275190516</v>
       </c>
       <c r="J3" t="n">
-        <v>0.651285930408472</v>
+        <v>0.07451312447078746</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3275340393343419</v>
+        <v>0.03895004233700254</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2095310136157337</v>
+        <v>0.01354784081287045</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1369137670196672</v>
+        <v>0.000846740050804403</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06202723146747353</v>
+        <v>0.2235393734123624</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01664145234493192</v>
+        <v>0.6308213378492803</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00302571860816944</v>
+        <v>0.1735817104149026</v>
       </c>
       <c r="Q3" t="n">
-        <v>20.44704992435704</v>
+        <v>0.1066892464013548</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8547655068078669</v>
+        <v>0.056731583403895</v>
       </c>
       <c r="S3" t="n">
-        <v>2.29803328290469</v>
+        <v>0.03979678238780694</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7118003025718608</v>
+        <v>0.02286198137171888</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3449319213313162</v>
+        <v>0.007620660457239628</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1913767019667171</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1301059001512859</v>
+        <v>1.704487722269263</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05143721633888049</v>
+        <v>3.564775613886537</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01210287443267776</v>
+        <v>2.297205757832345</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00151285930408472</v>
+        <v>1.753598645215919</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.631618759455371</v>
+        <v>4.144792548687553</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.74357034795764</v>
+        <v>2.556308213378493</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.786686838124054</v>
+        <v>58787.55292125318</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.704236006051437</v>
+        <v>52409.26879031329</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.347201210287443</v>
+        <v>64113.03979678239</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.981089258698941</v>
+        <v>34192.90957618289</v>
       </c>
       <c r="AG3" t="n">
-        <v>56342.13306696672</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>49876.50502891075</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>58893.72163388805</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>32154.92913118532</v>
-      </c>
-      <c r="AK3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,111 +1836,99 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2543.976968927809</v>
+        <v>2212.024134229951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.283031981675413</v>
+        <v>0.3152163655020556</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.75355964713844</v>
       </c>
       <c r="E4" t="n">
-        <v>14.35541088859403</v>
+        <v>0.6464989830969982</v>
       </c>
       <c r="F4" t="n">
-        <v>3.67629231119168</v>
+        <v>1.466703501788243</v>
       </c>
       <c r="G4" t="n">
-        <v>13.57888606417761</v>
+        <v>0.4986037998465612</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6761454595060402</v>
+        <v>0.4471686658593181</v>
       </c>
       <c r="I4" t="n">
-        <v>2.203751739459743</v>
+        <v>0.3606174153826621</v>
       </c>
       <c r="J4" t="n">
-        <v>0.753614963985389</v>
+        <v>0.3312058669629104</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6085299302244533</v>
+        <v>0.1978877828992</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5080427399424258</v>
+        <v>0.1156530263220665</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3854061909181821</v>
+        <v>0.02909879809896627</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2623393376900848</v>
+        <v>0.5231793332710878</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1279722719316753</v>
+        <v>1.609568344940915</v>
       </c>
       <c r="P4" t="n">
-        <v>0.054944036806518</v>
+        <v>0.5070818385499933</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.37482220485704</v>
+        <v>0.3688704183771771</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5811282568862364</v>
+        <v>0.2655326975810965</v>
       </c>
       <c r="S4" t="n">
-        <v>1.903535673280538</v>
+        <v>0.432894819522363</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6901468950702297</v>
+        <v>0.3002579773604911</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5982000783532225</v>
+        <v>0.1124888471152858</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4559155253328527</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.364617731624468</v>
+        <v>2.519729978651528</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2529197694071562</v>
+        <v>4.524162500035431</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1093866805475377</v>
+        <v>2.465813851105919</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03888076730410311</v>
+        <v>2.413468073224243</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.482800644588066</v>
+        <v>5.225284070955541</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.769616202037817</v>
+        <v>2.553745256233982</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.096461520882109</v>
+        <v>16379.79550761052</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.671540431937333</v>
+        <v>15774.23293185905</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.778229806867798</v>
+        <v>40754.68839814348</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.292747430456488</v>
+        <v>11323.61517379984</v>
       </c>
       <c r="AG4" t="n">
-        <v>15652.88887972396</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14985.69003195848</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>40279.12469711894</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10561.28627341621</v>
-      </c>
-      <c r="AK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2111,7 +1939,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2120,13 +1948,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2156,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -2192,30 +2020,18 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>12905.13834</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>7499.999999999999</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>8140.794224</v>
       </c>
       <c r="AG5" t="n">
-        <v>16900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13810.87203</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7499.999999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8733.258929</v>
-      </c>
-      <c r="AK5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,111 +2042,99 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1412.25</v>
+        <v>1976</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
         <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="n">
-        <v>3</v>
+        <v>47000.00000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>40714.28571</v>
       </c>
       <c r="AE6" t="n">
-        <v>4</v>
+        <v>32500</v>
       </c>
       <c r="AF6" t="n">
-        <v>3</v>
+        <v>25506.32911</v>
       </c>
       <c r="AG6" t="n">
-        <v>44625</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>38587.70708</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>24182.810995</v>
-      </c>
-      <c r="AK6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2341,111 +2145,99 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3555.5</v>
+        <v>3572</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>16</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
         <v>3</v>
       </c>
       <c r="AB7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>60700</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>53666.66667000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>42500</v>
       </c>
       <c r="AF7" t="n">
-        <v>4</v>
+        <v>34590.16393</v>
       </c>
       <c r="AG7" t="n">
-        <v>57650</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>50353.38346</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32500</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>32128.442725</v>
-      </c>
-      <c r="AK7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,111 +2248,99 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6133.25</v>
+        <v>5598</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>24</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
         <v>4</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>70500</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>63235.29411999999</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>110000</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>41764.70588</v>
       </c>
       <c r="AG8" t="n">
-        <v>68400</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>61250</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>40085.2890075</v>
-      </c>
-      <c r="AK8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2571,111 +2351,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7817</v>
+        <v>7852</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>28</v>
+      </c>
+      <c r="P9" t="n">
         <v>6</v>
       </c>
-      <c r="L9" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
+      <c r="S9" t="n">
+        <v>13</v>
+      </c>
+      <c r="T9" t="n">
+        <v>9</v>
+      </c>
+      <c r="U9" t="n">
         <v>3</v>
       </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>149</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>17</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="n">
-        <v>31</v>
+        <v>91500</v>
       </c>
       <c r="AD9" t="n">
-        <v>33</v>
+        <v>83833.33332999999</v>
       </c>
       <c r="AE9" t="n">
-        <v>88</v>
+        <v>110000</v>
       </c>
       <c r="AF9" t="n">
-        <v>36</v>
+        <v>58780.4878</v>
       </c>
       <c r="AG9" t="n">
-        <v>91300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>83571.42857</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>58780.4878</v>
-      </c>
-      <c r="AK9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2711,170 +2479,150 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Large User</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Income</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Mode Income</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -2887,112 +2635,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="C2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="D2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="E2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="F2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="G2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="H2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="I2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="J2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="K2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="L2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="M2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="N2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="O2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="P2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="Q2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="R2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="S2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="T2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="U2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="V2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="W2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="X2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="Y2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="Z2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="AA2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="AB2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="AC2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="AE2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="AF2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
       <c r="AG2" t="n">
-        <v>1822</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1822</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1822</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1822</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1822</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="3">
@@ -3002,111 +2738,99 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3388.603183315038</v>
+        <v>4371.093533956893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04171240395170143</v>
+        <v>0.1821878812525417</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5729971533143554</v>
       </c>
       <c r="E3" t="n">
-        <v>36.96597145993414</v>
+        <v>0.09922732818218788</v>
       </c>
       <c r="F3" t="n">
-        <v>11.49890230515917</v>
+        <v>0.3472956486376576</v>
       </c>
       <c r="G3" t="n">
-        <v>38.3655323819978</v>
+        <v>0.06832045546970313</v>
       </c>
       <c r="H3" t="n">
-        <v>1.70801317233809</v>
+        <v>0.05571370475803172</v>
       </c>
       <c r="I3" t="n">
-        <v>6.114160263446762</v>
+        <v>0.05937372915819439</v>
       </c>
       <c r="J3" t="n">
-        <v>1.450603732162459</v>
+        <v>0.03944692964619764</v>
       </c>
       <c r="K3" t="n">
-        <v>1.114160263446762</v>
+        <v>0.01992679951199675</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9758507135016465</v>
+        <v>0.004880032533550223</v>
       </c>
       <c r="M3" t="n">
-        <v>0.544456641053787</v>
+        <v>0.000406669377795852</v>
       </c>
       <c r="N3" t="n">
-        <v>0.238748627881449</v>
+        <v>0.06466043106954046</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07409440175631174</v>
+        <v>0.2257015046766978</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00823271130625686</v>
+        <v>0.05693371289141928</v>
       </c>
       <c r="Q3" t="n">
-        <v>40.29198682766191</v>
+        <v>0.03863359089060594</v>
       </c>
       <c r="R3" t="n">
-        <v>1.479692645444566</v>
+        <v>0.02684017893452623</v>
       </c>
       <c r="S3" t="n">
-        <v>5.384742041712404</v>
+        <v>0.02562017080113867</v>
       </c>
       <c r="T3" t="n">
-        <v>1.32436882546652</v>
+        <v>0.0101667344448963</v>
       </c>
       <c r="U3" t="n">
-        <v>1.031833150384193</v>
+        <v>0.002846685644570964</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8128430296377607</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4840834248079034</v>
+        <v>0.5693371289141927</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2118551042810099</v>
+        <v>1.064253761691745</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03841931942919868</v>
+        <v>0.7433916226108174</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001646542261251372</v>
+        <v>0.6299308662057747</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.016465422612514</v>
+        <v>1.677511183407889</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.71899012074643</v>
+        <v>0.8710858072387149</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.144895718990121</v>
+        <v>49037.98291988613</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.608122941822174</v>
+        <v>43720.7450858113</v>
       </c>
       <c r="AE3" t="n">
-        <v>14.84906695938529</v>
+        <v>42760.26840178935</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.05543358946213</v>
+        <v>28687.19452372834</v>
       </c>
       <c r="AG3" t="n">
-        <v>49439.40714071899</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>43216.09380926454</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>43100.98792535675</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>27432.95495800275</v>
-      </c>
-      <c r="AK3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3117,111 +2841,99 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2712.732328979101</v>
+        <v>1842.885015188286</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1999860748854513</v>
+        <v>0.3860778078548507</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.62005797973452</v>
       </c>
       <c r="E4" t="n">
-        <v>20.9348232867252</v>
+        <v>0.6176771270893489</v>
       </c>
       <c r="F4" t="n">
-        <v>5.944993038858494</v>
+        <v>2.001160110653743</v>
       </c>
       <c r="G4" t="n">
-        <v>21.80285281065108</v>
+        <v>0.4893171889729251</v>
       </c>
       <c r="H4" t="n">
-        <v>1.199181261900319</v>
+        <v>0.391824103302053</v>
       </c>
       <c r="I4" t="n">
-        <v>3.439782014951035</v>
+        <v>0.3865788668803721</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9727349352202967</v>
+        <v>0.2714917113251794</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7982183156996818</v>
+        <v>0.1509713421308742</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8555588914217822</v>
+        <v>0.06970074242464966</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6911613526645982</v>
+        <v>0.02016604516993483</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4586973574346174</v>
+        <v>0.4672857551836305</v>
       </c>
       <c r="O4" t="n">
-        <v>0.261996365283357</v>
+        <v>1.696899923701917</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09038483022357699</v>
+        <v>0.3973208078200414</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.34818405579766</v>
+        <v>0.3371069473091315</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9883307689665558</v>
+        <v>0.281103072599476</v>
       </c>
       <c r="S4" t="n">
-        <v>2.997096877278994</v>
+        <v>0.2655926094419925</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8896556121692809</v>
+        <v>0.1081425234865381</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7388763889242058</v>
+        <v>0.0532891814483361</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7189211336677265</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7096411524492848</v>
+        <v>2.753275142661217</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4711465735477704</v>
+        <v>3.649729300218156</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1922591029829853</v>
+        <v>2.500698040372779</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.04055531861265409</v>
+        <v>2.942715702744578</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.882872226455039</v>
+        <v>3.555514996042053</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.84419171214015</v>
+        <v>2.397121120585989</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.298645477248653</v>
+        <v>17517.1037235668</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.340433595352852</v>
+        <v>16404.79335464853</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.73328728865369</v>
+        <v>35903.90068937231</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.898945924766471</v>
+        <v>11557.1181847628</v>
       </c>
       <c r="AG4" t="n">
-        <v>15547.41703682505</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14676.65913118983</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>35080.45133717101</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10123.56133204964</v>
-      </c>
-      <c r="AK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3232,7 +2944,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -3241,19 +2953,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -3277,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.999999999999999</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -3313,30 +3025,18 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>14200</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>12326.60782</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>7499.999999999999</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>7843.803056</v>
       </c>
       <c r="AG5" t="n">
-        <v>12600</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10805.86081</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7499.999999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>6946.331522</v>
-      </c>
-      <c r="AK5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3347,7 +3047,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>982.25</v>
+        <v>3042.5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3356,25 +3056,25 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3392,19 +3092,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3422,36 +3122,24 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>5</v>
+        <v>34000</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>30000</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>17500</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>19000</v>
       </c>
       <c r="AG6" t="n">
-        <v>36100</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>30665.1030925</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18751.6711225</v>
-      </c>
-      <c r="AK6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3462,7 +3150,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2191.5</v>
+        <v>4404</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3471,28 +3159,28 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -3507,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -3537,36 +3225,24 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>44000</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.999999999999999</v>
+        <v>38333.33333</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>22500</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>24285.71429</v>
       </c>
       <c r="AG7" t="n">
-        <v>49600</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>43168.798985</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32500</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>26780.831495</v>
-      </c>
-      <c r="AK7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3577,7 +3253,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6218</v>
+        <v>5794.5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3586,31 +3262,31 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -3622,66 +3298,54 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>63500</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>57071.07843</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>42500</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>37941.17647</v>
       </c>
       <c r="AG8" t="n">
-        <v>61500</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>54198.609865</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>42500</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34690.371765</v>
-      </c>
-      <c r="AK8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3692,111 +3356,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7802</v>
+        <v>7853</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>32</v>
+      </c>
+      <c r="P9" t="n">
         <v>7</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
       <c r="Q9" t="n">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S9" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB9" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="AC9" t="n">
-        <v>40</v>
+        <v>93700</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>85000</v>
       </c>
       <c r="AE9" t="n">
-        <v>83</v>
+        <v>110000</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>58500</v>
       </c>
       <c r="AG9" t="n">
-        <v>89400</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>82946.42857</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>57727.27273</v>
-      </c>
-      <c r="AK9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3811,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3832,170 +3484,150 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Large User</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Income</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Mode Income</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -4008,112 +3640,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="C2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="D2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="E2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="F2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="G2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="H2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="I2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="J2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="K2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="L2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="M2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="N2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="O2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="P2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="Q2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="R2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="S2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="T2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="U2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="V2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="W2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="X2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="Z2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="AA2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="AB2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="AC2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="AD2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="AE2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="AF2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
       <c r="AG2" t="n">
-        <v>1485</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1485</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1485</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1485</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1485</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3">
@@ -4123,111 +3743,99 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4196.383838383838</v>
+        <v>4058.451507742461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1764309764309764</v>
+        <v>0.1752241238793806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01212121212121212</v>
+        <v>0.9755501222493888</v>
       </c>
       <c r="E3" t="n">
-        <v>4.340740740740741</v>
+        <v>0.149959250203749</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7427609427609427</v>
+        <v>0.5436022819885901</v>
       </c>
       <c r="G3" t="n">
-        <v>3.523905723905724</v>
+        <v>0.1401792991035045</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1198653198653199</v>
+        <v>0.09861450692746536</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4996632996632996</v>
+        <v>0.07742461287693561</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1239057239057239</v>
+        <v>0.04156479217603912</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08686868686868687</v>
+        <v>0.02526487367563162</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08417508417508418</v>
+        <v>0.01059494702526487</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04646464646464647</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02760942760942761</v>
+        <v>0.1206193969030155</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01077441077441077</v>
+        <v>0.4319478402607987</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.117359413202934</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.500336700336701</v>
+        <v>0.07497962510187449</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05656565656565657</v>
+        <v>0.05460472697636512</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2430976430976431</v>
+        <v>0.03830480847595762</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07205387205387205</v>
+        <v>0.01792991035044825</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04242424242424243</v>
+        <v>0.008149959250203748</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0228956228956229</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02895622895622896</v>
+        <v>0.7840260798696006</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01548821548821549</v>
+        <v>1.921760391198044</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.004713804713804714</v>
+        <v>1.088834555827221</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>0.850040749796251</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5063973063973064</v>
+        <v>3.308068459657702</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.567003367003367</v>
+        <v>1.225753871230644</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.731986531986532</v>
+        <v>59220.0488997555</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5757575757575758</v>
+        <v>53273.46631161369</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.499663299663299</v>
+        <v>54201.30399348003</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.9481481481481482</v>
+        <v>35335.032245489</v>
       </c>
       <c r="AG3" t="n">
-        <v>54489.76430976431</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>48682.14759391246</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>48569.02356902357</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>31900.88310541818</v>
-      </c>
-      <c r="AK3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4238,111 +3846,99 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1817.422953948575</v>
+        <v>1868.28711797503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3813148307081449</v>
+        <v>0.3803136995776059</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1094639541829918</v>
+        <v>3.970452296471301</v>
       </c>
       <c r="E4" t="n">
-        <v>10.25567968289821</v>
+        <v>0.6844863865309933</v>
       </c>
       <c r="F4" t="n">
-        <v>3.086547487230082</v>
+        <v>2.125433892544572</v>
       </c>
       <c r="G4" t="n">
-        <v>9.450980116702615</v>
+        <v>0.7179186204853854</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5361990449556048</v>
+        <v>0.4246365345921397</v>
       </c>
       <c r="I4" t="n">
-        <v>1.642849783809512</v>
+        <v>0.3470272986153258</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5880671815141136</v>
+        <v>0.2191489463455329</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3480731901242145</v>
+        <v>0.176555748226142</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3141734057707752</v>
+        <v>0.1024267760122673</v>
       </c>
       <c r="M4" t="n">
-        <v>0.228958057391378</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1833133455599631</v>
+        <v>0.5110111599506311</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1032739318759949</v>
+        <v>1.952759298580007</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.5274675906009796</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.949442609631538</v>
+        <v>0.405007274913643</v>
       </c>
       <c r="R4" t="n">
-        <v>0.379075770690841</v>
+        <v>0.3371281206499085</v>
       </c>
       <c r="S4" t="n">
-        <v>1.594980703320088</v>
+        <v>0.2844525866701158</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4212117000834864</v>
+        <v>0.1605596400712598</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3096899509496336</v>
+        <v>0.08994515461151698</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2159751109087364</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4019451375938828</v>
+        <v>2.515817321548628</v>
       </c>
       <c r="X4" t="n">
-        <v>0.262996124723905</v>
+        <v>5.054231909376962</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09347659005770531</v>
+        <v>3.214125257232537</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>2.545252353219247</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.821034114549732</v>
+        <v>6.367583977574189</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.895413638595631</v>
+        <v>2.998431642471632</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.500583576056347</v>
+        <v>15996.43023995511</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.815760455796714</v>
+        <v>15600.91356417199</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.885705112039873</v>
+        <v>36001.0906794361</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.355101048445213</v>
+        <v>11826.64286397725</v>
       </c>
       <c r="AG4" t="n">
-        <v>15529.63744249543</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>14789.95473182093</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>35069.09021248847</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10699.09739135918</v>
-      </c>
-      <c r="AK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4362,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4434,30 +4030,18 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>12901.37615</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>7499.999999999999</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>8215.843022999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>15100</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12901.37615</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7499.999999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8215.843022999999</v>
-      </c>
-      <c r="AK5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4468,7 +4052,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3086</v>
+        <v>2848.5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -4477,102 +4061,90 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>48400.00000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>42812.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>32500</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>27434.164935</v>
       </c>
       <c r="AG6" t="n">
-        <v>43600</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>38387.09677</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>24210.52632</v>
-      </c>
-      <c r="AK6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4583,7 +4155,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4271</v>
+        <v>4048</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -4592,102 +4164,90 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>54900</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>48571.42856999999</v>
       </c>
       <c r="AE7" t="n">
-        <v>2</v>
+        <v>32500</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>31333.33333</v>
       </c>
       <c r="AG7" t="n">
-        <v>52799.99999999999</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>46724.13793</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>32500</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>30161.29032</v>
-      </c>
-      <c r="AK7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4698,7 +4258,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5418</v>
+        <v>5350</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4707,19 +4267,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -4743,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -4761,48 +4321,36 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>68400</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>61449.579835</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>110000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>40833.33333</v>
       </c>
       <c r="AG8" t="n">
-        <v>63800</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>57058.82353</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>47500</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>37200</v>
-      </c>
-      <c r="AK8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4819,105 +4367,93 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
         <v>26</v>
       </c>
-      <c r="J9" t="n">
-        <v>12</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="P9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="L9" t="n">
+      <c r="S9" t="n">
         <v>4</v>
       </c>
-      <c r="M9" t="n">
+      <c r="T9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>140</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>28</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7</v>
-      </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="Y9" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AB9" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="n">
-        <v>38</v>
+        <v>93700</v>
       </c>
       <c r="AD9" t="n">
-        <v>33</v>
+        <v>85000</v>
       </c>
       <c r="AE9" t="n">
-        <v>62</v>
+        <v>110000</v>
       </c>
       <c r="AF9" t="n">
-        <v>37</v>
+        <v>58653.84615</v>
       </c>
       <c r="AG9" t="n">
-        <v>91000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>83750</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>58500</v>
-      </c>
-      <c r="AK9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4932,7 +4468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,170 +4489,150 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Large User</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Income</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Mode Income</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -5129,112 +4645,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="C2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="D2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="E2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="F2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="G2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="H2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="I2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="J2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="K2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="L2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="M2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="N2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="O2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="P2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="Q2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="R2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="S2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="T2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="U2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="V2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="W2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="X2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="Y2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="Z2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="AA2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="AB2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="AC2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="AD2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="AE2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="AF2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
       <c r="AG2" t="n">
-        <v>1928</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1928</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1928</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1928</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1928</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="3">
@@ -5244,111 +4748,99 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4449.810684647303</v>
+        <v>3454.144363876071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1919087136929461</v>
+        <v>0.03559657218193803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02282157676348548</v>
+        <v>12.00461437046803</v>
       </c>
       <c r="E3" t="n">
-        <v>2.117219917012448</v>
+        <v>1.763348714568227</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3884854771784232</v>
+        <v>6.386947923533289</v>
       </c>
       <c r="G3" t="n">
-        <v>1.565352697095436</v>
+        <v>1.493078444297957</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0783195020746888</v>
+        <v>1.179960448253131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2562240663900415</v>
+        <v>1.03295978905735</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0487551867219917</v>
+        <v>0.5807514831905076</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03838174273858921</v>
+        <v>0.2478576137112722</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03786307053941908</v>
+        <v>0.08042188529993408</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03319502074688797</v>
+        <v>0.008569545154911009</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01659751037344398</v>
+        <v>1.514831905075807</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003112033195020747</v>
+        <v>5.61766644693474</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.364535266974291</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.445539419087137</v>
+        <v>1.084377059986816</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03526970954356846</v>
+        <v>0.8661832564271589</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1322614107883817</v>
+        <v>0.5187870797626896</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03578838174273859</v>
+        <v>0.2261041529334212</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02437759336099585</v>
+        <v>0.04087013843111404</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01400414937759336</v>
+        <v>0.001977587343441002</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01607883817427386</v>
+        <v>8.367831245880026</v>
       </c>
       <c r="X3" t="n">
-        <v>0.005186721991701245</v>
+        <v>13.22280817402769</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001556016597510373</v>
+        <v>9.500329597890573</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>8.977587343441002</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.279045643153527</v>
+        <v>15.46077785102175</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.4569502074688797</v>
+        <v>9.367831245880026</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4496887966804979</v>
+        <v>49030.45472009887</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3475103734439834</v>
+        <v>42815.79951198418</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.296680497925311</v>
+        <v>41949.57152274226</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5311203319502075</v>
+        <v>27146.8186291325</v>
       </c>
       <c r="AG3" t="n">
-        <v>50908.92116182572</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>45696.47274548755</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>45565.35269709543</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>30363.12159667427</v>
-      </c>
-      <c r="AK3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5359,111 +4851,99 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.116300697232</v>
+        <v>2727.499044519072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3939038418228584</v>
+        <v>0.1853431978543611</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1493731072860295</v>
+        <v>5.370750925236425</v>
       </c>
       <c r="E4" t="n">
-        <v>6.666241011704527</v>
+        <v>1.151470949974232</v>
       </c>
       <c r="F4" t="n">
-        <v>2.753120075340719</v>
+        <v>3.179736880396355</v>
       </c>
       <c r="G4" t="n">
-        <v>8.335771620595446</v>
+        <v>0.960697760543971</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5007383003649437</v>
+        <v>0.7345016069225653</v>
       </c>
       <c r="I4" t="n">
-        <v>1.542584469473548</v>
+        <v>0.8098796331244684</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3941825358068232</v>
+        <v>0.7040019148512477</v>
       </c>
       <c r="K4" t="n">
-        <v>0.298029988284114</v>
+        <v>0.4628732803307725</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2678364718182087</v>
+        <v>0.2720349023972858</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2535431523117354</v>
+        <v>0.09220473059262424</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1277908572663011</v>
+        <v>0.9667685074800861</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05571317960172095</v>
+        <v>2.762623525960197</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8879923092395635</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.702643169731396</v>
+        <v>0.6973374430267053</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3218408872329336</v>
+        <v>0.6833079563627974</v>
       </c>
       <c r="S4" t="n">
-        <v>1.282445716674347</v>
+        <v>0.7037004378414026</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3257904057987422</v>
+        <v>0.4801098403511461</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2825620910424061</v>
+        <v>0.198054607580717</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2070650015729137</v>
+        <v>0.04444072894498982</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2069141601015832</v>
+        <v>5.932711416587352</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07185052227116967</v>
+        <v>8.946067178737072</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03942590055753891</v>
+        <v>5.282722487825573</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>6.345860531897014</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.091060549352984</v>
+        <v>10.89337009650624</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.827548780385446</v>
+        <v>4.842421258453924</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.996249702977117</v>
+        <v>15382.44436995014</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.048854281301007</v>
+        <v>14518.01516136724</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.770058118498271</v>
+        <v>34454.76549886035</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.731920888411815</v>
+        <v>10012.80360301348</v>
       </c>
       <c r="AG4" t="n">
-        <v>19441.25592773654</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>18404.55496846825</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>37822.19323040033</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13291.17188097839</v>
-      </c>
-      <c r="AK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5474,19 +4954,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5543,42 +5023,30 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>10805.86081</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>7499.999999999999</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>6946.331522</v>
       </c>
       <c r="AG5" t="n">
-        <v>14200</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>12326.60782</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>7499.999999999999</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7843.803056</v>
-      </c>
-      <c r="AK5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5589,28 +5057,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3113.25</v>
+        <v>1030</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -5625,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -5652,48 +5120,36 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>35900</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>30546.21849</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>18691.27517</v>
       </c>
       <c r="AG6" t="n">
-        <v>34075</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>30000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>17500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19166.66667</v>
-      </c>
-      <c r="AK6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5704,28 +5160,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4396.5</v>
+        <v>2297</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5740,19 +5196,19 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -5767,48 +5223,36 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>6.999999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>48800</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>42587.41259</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>32500</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>26436.17021</v>
       </c>
       <c r="AG7" t="n">
-        <v>45800</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>41250</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>27500</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>26666.66667</v>
-      </c>
-      <c r="AK7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5819,31 +5263,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5866.75</v>
+        <v>6745</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -5855,22 +5299,22 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -5882,48 +5326,36 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>61000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>53682.00837</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>42500</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>34280.23033</v>
       </c>
       <c r="AG8" t="n">
-        <v>66300</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>60000.00000000001</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>47500</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>40000</v>
-      </c>
-      <c r="AK8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5934,111 +5366,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7853</v>
+        <v>7814</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
         <v>7</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>21</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
         <v>6</v>
       </c>
-      <c r="L9" t="n">
+      <c r="S9" t="n">
         <v>5</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>141</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>26</v>
-      </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AB9" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>34</v>
+        <v>89400</v>
       </c>
       <c r="AD9" t="n">
-        <v>45</v>
+        <v>82946.42857</v>
       </c>
       <c r="AE9" t="n">
-        <v>51</v>
+        <v>110000</v>
       </c>
       <c r="AF9" t="n">
-        <v>33</v>
+        <v>57727.27273</v>
       </c>
       <c r="AG9" t="n">
-        <v>93700</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>85000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>110000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>58333.33333</v>
-      </c>
-      <c r="AK9" t="n">
         <v>4</v>
       </c>
     </row>

--- a/ofcom_k-modes_description.xlsx
+++ b/ofcom_k-modes_description.xlsx
@@ -13,6 +13,9 @@
     <sheet name="cluster 02" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="cluster 03" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="cluster 04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="cluster 05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="cluster 06" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="cluster 07" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,155 +467,150 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Mean Income</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Mode Income</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -625,100 +623,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="C2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="D2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="E2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="F2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="G2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="H2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="I2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="J2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="K2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="L2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="M2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="N2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="O2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="P2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="Q2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="R2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="S2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="T2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="U2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="V2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="W2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="X2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="Y2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="Z2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="AA2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="AB2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="AC2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="AD2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="AE2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
       <c r="AF2" t="n">
-        <v>1471</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1471</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="3">
@@ -728,99 +723,96 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3668.235214140041</v>
+        <v>4353.939573873559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08565601631543168</v>
+        <v>90.53440447083479</v>
       </c>
       <c r="D3" t="n">
-        <v>5.775662814411965</v>
+        <v>3.080684596577017</v>
       </c>
       <c r="E3" t="n">
-        <v>1.033310673011557</v>
+        <v>30.34579112818722</v>
       </c>
       <c r="F3" t="n">
-        <v>2.970088375254929</v>
+        <v>1.995110024449878</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8565601631543168</v>
+        <v>1.150541390150192</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4473147518694766</v>
+        <v>0.8215158924205379</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3127124405166553</v>
+        <v>0.4526720223541739</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1937457511896669</v>
+        <v>0.1152637093957387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09653297076818491</v>
+        <v>0.02444987775061125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02447314751869476</v>
+        <v>0.001047851903597625</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005438477226376614</v>
+        <v>1.078588892769822</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9646498980285521</v>
+        <v>15.96088019559902</v>
       </c>
       <c r="O3" t="n">
-        <v>2.805574439157036</v>
+        <v>1.043660495983234</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8463630183548606</v>
+        <v>0.7293049249039469</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4636301835486064</v>
+        <v>0.3918966119455117</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2726036709721278</v>
+        <v>0.77645826056584</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1672331747110809</v>
+        <v>0.2231924554662941</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07205982324949015</v>
+        <v>0.01886133426475725</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01563562202583277</v>
+        <v>0.0006985679357317499</v>
       </c>
       <c r="V3" t="n">
-        <v>0.003399048266485384</v>
+        <v>63.17010129235068</v>
       </c>
       <c r="W3" t="n">
-        <v>4.220258327668253</v>
+        <v>163.9399231575271</v>
       </c>
       <c r="X3" t="n">
-        <v>7.65329707681849</v>
+        <v>55.63395040167656</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.434398368456832</v>
+        <v>73.34614041215508</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.441196464989803</v>
+        <v>242.3304226336011</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.291638341264447</v>
+        <v>61.97974152986378</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.676410605030592</v>
+        <v>4369381875.654907</v>
       </c>
       <c r="AC3" t="n">
-        <v>56323.79327976207</v>
+        <v>3513067869.820468</v>
       </c>
       <c r="AD3" t="n">
-        <v>49825.64999885792</v>
+        <v>3806872162.067761</v>
       </c>
       <c r="AE3" t="n">
-        <v>59891.23045547247</v>
+        <v>1578831805.00757</v>
       </c>
       <c r="AF3" t="n">
-        <v>32091.18622172399</v>
-      </c>
-      <c r="AG3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -831,99 +823,96 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2574.759898800936</v>
+        <v>1935.367003708811</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2799506053908033</v>
+        <v>353.2685882500039</v>
       </c>
       <c r="D4" t="n">
-        <v>4.571723854210106</v>
+        <v>11.58380821701534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8078558911288495</v>
+        <v>108.4912695975578</v>
       </c>
       <c r="F4" t="n">
-        <v>2.645582107223674</v>
+        <v>8.158371510015805</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7888397552565227</v>
+        <v>4.965573890336662</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6987193792445535</v>
+        <v>3.674367490791016</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6205945565728477</v>
+        <v>2.225364946949165</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4500812178490752</v>
+        <v>0.6288995680007409</v>
       </c>
       <c r="K4" t="n">
-        <v>0.32606947858481</v>
+        <v>0.2198154589057701</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1589056252869655</v>
+        <v>0.03235922823697539</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0735702366162759</v>
+        <v>5.11930744338573</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6619707716472804</v>
+        <v>74.09362789621296</v>
       </c>
       <c r="O4" t="n">
-        <v>2.331738175287804</v>
+        <v>4.943550755618475</v>
       </c>
       <c r="P4" t="n">
-        <v>0.751089024383791</v>
+        <v>3.937190808101535</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7132393358596997</v>
+        <v>2.402268029305875</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5664581016383161</v>
+        <v>5.608996631920724</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4196375493249523</v>
+        <v>2.082536956463775</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2977942250957478</v>
+        <v>0.2740726616826221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1241032615176721</v>
+        <v>0.02642581790402641</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05822198172130669</v>
+        <v>213.1217079280556</v>
       </c>
       <c r="W4" t="n">
-        <v>3.930227902016987</v>
+        <v>439.8438345202451</v>
       </c>
       <c r="X4" t="n">
-        <v>6.471348759582343</v>
+        <v>155.1026174367042</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.696239994504812</v>
+        <v>243.3243902716418</v>
       </c>
       <c r="Z4" t="n">
-        <v>4.214863842042051</v>
+        <v>513.5596670235673</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.392979214982461</v>
+        <v>153.1883313392166</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.780721905653397</v>
+        <v>1399268689.985424</v>
       </c>
       <c r="AC4" t="n">
-        <v>15720.66764231635</v>
+        <v>1185012981.795197</v>
       </c>
       <c r="AD4" t="n">
-        <v>15017.67080226532</v>
+        <v>3011020212.519275</v>
       </c>
       <c r="AE4" t="n">
-        <v>40477.02461498657</v>
+        <v>573679261.9903693</v>
       </c>
       <c r="AF4" t="n">
-        <v>10545.70172286867</v>
-      </c>
-      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,13 +923,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1012,21 +1001,18 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1330540000</v>
       </c>
       <c r="AC5" t="n">
-        <v>16000</v>
+        <v>985200140.65</v>
       </c>
       <c r="AD5" t="n">
-        <v>13314.23895</v>
+        <v>824999999.9999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>7499.999999999999</v>
+        <v>428986053.2378141</v>
       </c>
       <c r="AF5" t="n">
-        <v>8340.874811</v>
-      </c>
-      <c r="AG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1037,19 +1023,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1295.5</v>
+        <v>2976.5</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1073,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1100,36 +1086,33 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>4</v>
+        <v>3190485000</v>
       </c>
       <c r="AC6" t="n">
-        <v>44500</v>
+        <v>2543023990.075</v>
       </c>
       <c r="AD6" t="n">
-        <v>38417.194095</v>
+        <v>1925000000</v>
       </c>
       <c r="AE6" t="n">
-        <v>22500</v>
+        <v>1105589485.807031</v>
       </c>
       <c r="AF6" t="n">
-        <v>24119.183285</v>
-      </c>
-      <c r="AG6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1140,22 +1123,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3118</v>
+        <v>4393</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1176,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1203,36 +1186,33 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>4</v>
+        <v>4122800000</v>
       </c>
       <c r="AC7" t="n">
-        <v>58300</v>
+        <v>3269230769.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>51213.87283</v>
+        <v>2475000000</v>
       </c>
       <c r="AE7" t="n">
-        <v>42500</v>
+        <v>1431000841.147099</v>
       </c>
       <c r="AF7" t="n">
-        <v>32773.10924</v>
-      </c>
-      <c r="AG7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,28 +1223,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6132</v>
+        <v>5841.5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1279,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1303,39 +1283,36 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.000000000000001</v>
+        <v>5425230000</v>
       </c>
       <c r="AC8" t="n">
-        <v>68150</v>
+        <v>4380769230.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>60988.43409</v>
+        <v>3575000000</v>
       </c>
       <c r="AE8" t="n">
-        <v>110000</v>
+        <v>1965344106.930804</v>
       </c>
       <c r="AF8" t="n">
-        <v>39758.033105</v>
-      </c>
-      <c r="AG8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1346,99 +1323,96 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7854</v>
+        <v>7850</v>
       </c>
       <c r="C9" t="n">
+        <v>5184</v>
+      </c>
+      <c r="D9" t="n">
+        <v>196</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F9" t="n">
+        <v>132</v>
+      </c>
+      <c r="G9" t="n">
+        <v>81</v>
+      </c>
+      <c r="H9" t="n">
+        <v>49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>36</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>41</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="M9" t="n">
+        <v>64</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1024</v>
+      </c>
+      <c r="O9" t="n">
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>169</v>
+      </c>
+      <c r="S9" t="n">
+        <v>81</v>
+      </c>
+      <c r="T9" t="n">
         <v>9</v>
-      </c>
-      <c r="F9" t="n">
-        <v>26</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>8</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4</v>
       </c>
       <c r="U9" t="n">
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>2600</v>
       </c>
       <c r="W9" t="n">
-        <v>40</v>
+        <v>5440</v>
       </c>
       <c r="X9" t="n">
-        <v>64</v>
+        <v>1520</v>
       </c>
       <c r="Y9" t="n">
-        <v>31</v>
+        <v>2530</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>6600</v>
       </c>
       <c r="AA9" t="n">
-        <v>88</v>
+        <v>1517</v>
       </c>
       <c r="AB9" t="n">
-        <v>36</v>
+        <v>8779690000</v>
       </c>
       <c r="AC9" t="n">
-        <v>91300</v>
+        <v>7225000000</v>
       </c>
       <c r="AD9" t="n">
-        <v>83571.42857</v>
+        <v>12100000000</v>
       </c>
       <c r="AE9" t="n">
-        <v>110000</v>
+        <v>3438658536.3</v>
       </c>
       <c r="AF9" t="n">
-        <v>57600</v>
-      </c>
-      <c r="AG9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1453,7 +1427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1469,155 +1443,150 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Mean Income</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Mode Income</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -1630,100 +1599,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="C2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="D2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="E2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="F2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="G2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="H2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="I2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="J2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="K2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="L2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="M2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="N2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="O2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="P2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="Q2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="R2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="S2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="T2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="U2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="V2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="W2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="X2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="Z2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="AA2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="AB2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="AC2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="AD2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="AE2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
       <c r="AF2" t="n">
-        <v>1181</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1181</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3">
@@ -1733,99 +1699,96 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3795.457239627434</v>
+        <v>3776.514344262295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1117696867061812</v>
+        <v>158.7540983606557</v>
       </c>
       <c r="D3" t="n">
-        <v>1.584250635055038</v>
+        <v>5.379098360655738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3158340389500424</v>
+        <v>42.09016393442623</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9534292972057579</v>
+        <v>3.19672131147541</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2303132938187976</v>
+        <v>1.512295081967213</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1541066892464014</v>
+        <v>0.8176229508196722</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1253175275190516</v>
+        <v>0.4118852459016393</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07451312447078746</v>
+        <v>0.09528688524590163</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03895004233700254</v>
+        <v>0.02663934426229508</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01354784081287045</v>
+        <v>0.003073770491803279</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000846740050804403</v>
+        <v>3.368852459016393</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2235393734123624</v>
+        <v>36.88524590163934</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6308213378492803</v>
+        <v>3.052254098360656</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1735817104149026</v>
+        <v>1.581967213114754</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1066892464013548</v>
+        <v>0.6147540983606558</v>
       </c>
       <c r="R3" t="n">
-        <v>0.056731583403895</v>
+        <v>0.5993852459016393</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03979678238780694</v>
+        <v>0.2858606557377049</v>
       </c>
       <c r="T3" t="n">
-        <v>0.02286198137171888</v>
+        <v>0.03688524590163934</v>
       </c>
       <c r="U3" t="n">
-        <v>0.007620660457239628</v>
+        <v>0.002049180327868853</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>112.7909836065574</v>
       </c>
       <c r="W3" t="n">
-        <v>1.704487722269263</v>
+        <v>342.5409836065574</v>
       </c>
       <c r="X3" t="n">
-        <v>3.564775613886537</v>
+        <v>119.9590163934426</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.297205757832345</v>
+        <v>120.1997950819672</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.753598645215919</v>
+        <v>443.8770491803278</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.144792548687553</v>
+        <v>134.0481557377049</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.556308213378493</v>
+        <v>5531612141.393442</v>
       </c>
       <c r="AC3" t="n">
-        <v>58787.55292125318</v>
+        <v>4466890006.698821</v>
       </c>
       <c r="AD3" t="n">
-        <v>52409.26879031329</v>
+        <v>7048002049.180327</v>
       </c>
       <c r="AE3" t="n">
-        <v>64113.03979678239</v>
+        <v>2008699312.990242</v>
       </c>
       <c r="AF3" t="n">
-        <v>34192.90957618289</v>
-      </c>
-      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1836,99 +1799,96 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2212.024134229951</v>
+        <v>2321.914780962135</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3152163655020556</v>
+        <v>256.7578945104563</v>
       </c>
       <c r="D4" t="n">
-        <v>2.75355964713844</v>
+        <v>10.61879000333516</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6464989830969982</v>
+        <v>75.50809816018392</v>
       </c>
       <c r="F4" t="n">
-        <v>1.466703501788243</v>
+        <v>7.319396746068326</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4986037998465612</v>
+        <v>4.375438727776865</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4471686658593181</v>
+        <v>2.715111913497547</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3606174153826621</v>
+        <v>1.701408807248303</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3312058669629104</v>
+        <v>0.5765843898668115</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1978877828992</v>
+        <v>0.2466334912877818</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1156530263220665</v>
+        <v>0.05538470295635506</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02909879809896627</v>
+        <v>5.110794319793644</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5231793332710878</v>
+        <v>63.25932907822094</v>
       </c>
       <c r="O4" t="n">
-        <v>1.609568344940915</v>
+        <v>5.954212905505289</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5070818385499933</v>
+        <v>4.323987075451026</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3688704183771771</v>
+        <v>2.2552838336315</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2655326975810965</v>
+        <v>2.912107287250766</v>
       </c>
       <c r="S4" t="n">
-        <v>0.432894819522363</v>
+        <v>1.823281031561081</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3002579773604911</v>
+        <v>0.3307677644473203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1124888471152858</v>
+        <v>0.04524465277196471</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>150.1859270291182</v>
       </c>
       <c r="W4" t="n">
-        <v>2.519729978651528</v>
+        <v>406.7412689377399</v>
       </c>
       <c r="X4" t="n">
-        <v>4.524162500035431</v>
+        <v>117.5126762858035</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.465813851105919</v>
+        <v>165.0228765492026</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.413468073224243</v>
+        <v>543.8072520955325</v>
       </c>
       <c r="AA4" t="n">
-        <v>5.225284070955541</v>
+        <v>120.7016611815257</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.553745256233982</v>
+        <v>1453599603.267809</v>
       </c>
       <c r="AC4" t="n">
-        <v>16379.79550761052</v>
+        <v>1271828785.49227</v>
       </c>
       <c r="AD4" t="n">
-        <v>15774.23293185905</v>
+        <v>4432472378.787458</v>
       </c>
       <c r="AE4" t="n">
-        <v>40754.68839814348</v>
+        <v>631685574.4324447</v>
       </c>
       <c r="AF4" t="n">
-        <v>11323.61517379984</v>
-      </c>
-      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1939,7 +1899,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2017,21 +1977,18 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1611640000</v>
       </c>
       <c r="AC5" t="n">
-        <v>15300</v>
+        <v>1230597014.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>12905.13834</v>
+        <v>824999999.9999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>7499.999999999999</v>
+        <v>546658536.5400001</v>
       </c>
       <c r="AF5" t="n">
-        <v>8140.794224</v>
-      </c>
-      <c r="AG5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2042,13 +1999,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1976</v>
+        <v>1802</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2102,39 +2059,36 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="X6" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>4553820000</v>
       </c>
       <c r="AC6" t="n">
-        <v>47000.00000000001</v>
+        <v>3614809782.35</v>
       </c>
       <c r="AD6" t="n">
-        <v>40714.28571</v>
+        <v>3575000000</v>
       </c>
       <c r="AE6" t="n">
-        <v>32500</v>
+        <v>1573126174.222499</v>
       </c>
       <c r="AF6" t="n">
-        <v>25506.32911</v>
-      </c>
-      <c r="AG6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2145,19 +2099,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3572</v>
+        <v>3542.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -2181,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -2205,39 +2159,36 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>352</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>5664165000</v>
       </c>
       <c r="AC7" t="n">
-        <v>60700</v>
+        <v>4541339066.55</v>
       </c>
       <c r="AD7" t="n">
-        <v>53666.66667000001</v>
+        <v>4675000000</v>
       </c>
       <c r="AE7" t="n">
-        <v>42500</v>
+        <v>2013093073.957329</v>
       </c>
       <c r="AF7" t="n">
-        <v>34590.16393</v>
-      </c>
-      <c r="AG7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2248,19 +2199,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5598</v>
+        <v>5848.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2281,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -2308,39 +2259,36 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="Y8" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>440</v>
       </c>
       <c r="AA8" t="n">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>6568370000</v>
       </c>
       <c r="AC8" t="n">
-        <v>70500</v>
+        <v>5348070196.7125</v>
       </c>
       <c r="AD8" t="n">
-        <v>63235.29411999999</v>
+        <v>12100000000</v>
       </c>
       <c r="AE8" t="n">
-        <v>110000</v>
+        <v>2434507082.155894</v>
       </c>
       <c r="AF8" t="n">
-        <v>41764.70588</v>
-      </c>
-      <c r="AG8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,96 +2302,93 @@
         <v>7852</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2664</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>720</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I9" t="n">
+        <v>24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" t="n">
         <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" t="n">
+        <v>608</v>
+      </c>
+      <c r="O9" t="n">
+        <v>54</v>
+      </c>
+      <c r="P9" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>18</v>
+      </c>
+      <c r="R9" t="n">
+        <v>26</v>
+      </c>
+      <c r="S9" t="n">
+        <v>27</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>13</v>
-      </c>
-      <c r="T9" t="n">
-        <v>9</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1456</v>
       </c>
       <c r="W9" t="n">
-        <v>25</v>
+        <v>5760</v>
       </c>
       <c r="X9" t="n">
-        <v>72</v>
+        <v>1240</v>
       </c>
       <c r="Y9" t="n">
-        <v>28</v>
+        <v>1540</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>6864</v>
       </c>
       <c r="AA9" t="n">
-        <v>78</v>
+        <v>1312</v>
       </c>
       <c r="AB9" t="n">
-        <v>37</v>
+        <v>8554810000</v>
       </c>
       <c r="AC9" t="n">
-        <v>91500</v>
+        <v>7106944444.349999</v>
       </c>
       <c r="AD9" t="n">
-        <v>83833.33332999999</v>
+        <v>12100000000</v>
       </c>
       <c r="AE9" t="n">
-        <v>110000</v>
+        <v>3455145746.005949</v>
       </c>
       <c r="AF9" t="n">
-        <v>58780.4878</v>
-      </c>
-      <c r="AG9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2458,7 +2403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2474,155 +2419,150 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Mean Income</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Mode Income</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -2635,100 +2575,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="C2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="D2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="E2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="F2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="G2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="H2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="I2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="J2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="K2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="L2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="M2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="N2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="O2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="P2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="Q2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="R2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="S2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="T2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="U2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="V2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="W2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="X2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="Y2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="Z2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="AA2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="AB2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="AC2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="AD2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="AE2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
       <c r="AF2" t="n">
-        <v>2459</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2459</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="3">
@@ -2738,99 +2675,96 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4371.093533956893</v>
+        <v>3470.84649859944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1821878812525417</v>
+        <v>815.7176470588236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5729971533143554</v>
+        <v>23.51372549019608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09922732818218788</v>
+        <v>239.2605042016807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3472956486376576</v>
+        <v>17.16974789915966</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06832045546970313</v>
+        <v>9.796638655462186</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05571370475803172</v>
+        <v>6.576470588235294</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05937372915819439</v>
+        <v>3.176470588235294</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03944692964619764</v>
+        <v>0.6991596638655462</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01992679951199675</v>
+        <v>0.1445378151260504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004880032533550223</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000406669377795852</v>
+        <v>11.6436974789916</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06466043106954046</v>
+        <v>171.1327731092437</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2257015046766978</v>
+        <v>11.86890756302521</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05693371289141928</v>
+        <v>8.277871148459385</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03863359089060594</v>
+        <v>4.890756302521009</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02684017893452623</v>
+        <v>6.044817927170868</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02562017080113867</v>
+        <v>1.93109243697479</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0101667344448963</v>
+        <v>0.1277310924369748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002846685644570964</v>
+        <v>0.001680672268907563</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>398.2296918767507</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5693371289141927</v>
+        <v>1010.285714285714</v>
       </c>
       <c r="X3" t="n">
-        <v>1.064253761691745</v>
+        <v>356.9075630252101</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7433916226108174</v>
+        <v>451.7703081232493</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6299308662057747</v>
+        <v>1321.429691876751</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.677511183407889</v>
+        <v>363.8778711484594</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8710858072387149</v>
+        <v>4739141267.357727</v>
       </c>
       <c r="AC3" t="n">
-        <v>49037.98291988613</v>
+        <v>3762397809.289048</v>
       </c>
       <c r="AD3" t="n">
-        <v>43720.7450858113</v>
+        <v>4894229691.876751</v>
       </c>
       <c r="AE3" t="n">
-        <v>42760.26840178935</v>
+        <v>1653605656.147202</v>
       </c>
       <c r="AF3" t="n">
-        <v>28687.19452372834</v>
-      </c>
-      <c r="AG3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2841,99 +2775,96 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1842.885015188286</v>
+        <v>2709.855801967238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3860778078548507</v>
+        <v>396.9465869331397</v>
       </c>
       <c r="D4" t="n">
-        <v>3.62005797973452</v>
+        <v>15.73195303383159</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6176771270893489</v>
+        <v>129.4361345572319</v>
       </c>
       <c r="F4" t="n">
-        <v>2.001160110653743</v>
+        <v>12.23218862499617</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4893171889729251</v>
+        <v>6.83859316000258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.391824103302053</v>
+        <v>5.530176681463112</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3865788668803721</v>
+        <v>4.009616506822792</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2714917113251794</v>
+        <v>1.371852030282756</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1509713421308742</v>
+        <v>0.5180104032327258</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06970074242464966</v>
+        <v>0.09130945013393901</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02016604516993483</v>
+        <v>7.322694604866623</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4672857551836305</v>
+        <v>89.97204826524305</v>
       </c>
       <c r="O4" t="n">
-        <v>1.696899923701917</v>
+        <v>8.000116463899593</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3973208078200414</v>
+        <v>5.547500543631722</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3371069473091315</v>
+        <v>4.119548815511346</v>
       </c>
       <c r="R4" t="n">
-        <v>0.281103072599476</v>
+        <v>8.716653773538914</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2655926094419925</v>
+        <v>4.35030824443597</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1081425234865381</v>
+        <v>0.6058743223345358</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0532891814483361</v>
+        <v>0.04097301681803672</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>283.0475465001979</v>
       </c>
       <c r="W4" t="n">
-        <v>2.753275142661217</v>
+        <v>704.8550220989356</v>
       </c>
       <c r="X4" t="n">
-        <v>3.649729300218156</v>
+        <v>202.1927577675953</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.500698040372779</v>
+        <v>316.2520102439969</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.942715702744578</v>
+        <v>972.3189052415343</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.555514996042053</v>
+        <v>192.0941318202365</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.397121120585989</v>
+        <v>1417549124.035241</v>
       </c>
       <c r="AC4" t="n">
-        <v>17517.1037235668</v>
+        <v>1215297680.789582</v>
       </c>
       <c r="AD4" t="n">
-        <v>16404.79335464853</v>
+        <v>3868369078.179428</v>
       </c>
       <c r="AE4" t="n">
-        <v>35903.90068937231</v>
+        <v>580892271.7820226</v>
       </c>
       <c r="AF4" t="n">
-        <v>11557.1181847628</v>
-      </c>
-      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2944,10 +2875,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3010,33 +2941,30 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1180620000</v>
       </c>
       <c r="AC5" t="n">
-        <v>14200</v>
+        <v>918498168.85</v>
       </c>
       <c r="AD5" t="n">
-        <v>12326.60782</v>
+        <v>824999999.9999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>7499.999999999999</v>
+        <v>408308755.2836764</v>
       </c>
       <c r="AF5" t="n">
-        <v>7843.803056</v>
-      </c>
-      <c r="AG5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3047,22 +2975,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3042.5</v>
+        <v>1048</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -3080,16 +3008,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -3107,39 +3035,36 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>3560600000</v>
       </c>
       <c r="AC6" t="n">
-        <v>34000</v>
+        <v>2762500000</v>
       </c>
       <c r="AD6" t="n">
-        <v>30000</v>
+        <v>1925000000</v>
       </c>
       <c r="AE6" t="n">
-        <v>17500</v>
+        <v>1170611415.41261</v>
       </c>
       <c r="AF6" t="n">
-        <v>19000</v>
-      </c>
-      <c r="AG6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3150,25 +3075,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4404</v>
+        <v>2377</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -3183,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -3210,39 +3135,36 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>384.9999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1056</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>4769330000.000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>44000</v>
+        <v>3771185065.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>38333.33333</v>
+        <v>3575000000</v>
       </c>
       <c r="AE7" t="n">
-        <v>22500</v>
+        <v>1638506097.425</v>
       </c>
       <c r="AF7" t="n">
-        <v>24285.71429</v>
-      </c>
-      <c r="AG7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3253,28 +3175,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5794.5</v>
+        <v>6700</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -3286,22 +3208,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -3313,39 +3235,36 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>440</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>605</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1672</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>451</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>5800030000</v>
       </c>
       <c r="AC8" t="n">
-        <v>63500</v>
+        <v>4627777777.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>57071.07843</v>
+        <v>4675000000</v>
       </c>
       <c r="AE8" t="n">
-        <v>42500</v>
+        <v>2051973392.344346</v>
       </c>
       <c r="AF8" t="n">
-        <v>37941.17647</v>
-      </c>
-      <c r="AG8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3356,99 +3275,96 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7853</v>
+        <v>7814</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3744</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>1040</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H9" t="n">
+        <v>49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24</v>
+      </c>
+      <c r="J9" t="n">
         <v>9</v>
       </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>832</v>
       </c>
       <c r="O9" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="Q9" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2704</v>
       </c>
       <c r="W9" t="n">
-        <v>50</v>
+        <v>6400</v>
       </c>
       <c r="X9" t="n">
-        <v>68</v>
+        <v>1600</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>3025</v>
       </c>
       <c r="Z9" t="n">
-        <v>45</v>
+        <v>7744</v>
       </c>
       <c r="AA9" t="n">
-        <v>51</v>
+        <v>1681</v>
       </c>
       <c r="AB9" t="n">
-        <v>33</v>
+        <v>8376780000</v>
       </c>
       <c r="AC9" t="n">
-        <v>93700</v>
+        <v>7050446428.450001</v>
       </c>
       <c r="AD9" t="n">
-        <v>85000</v>
+        <v>12100000000</v>
       </c>
       <c r="AE9" t="n">
-        <v>110000</v>
+        <v>3393237250.433038</v>
       </c>
       <c r="AF9" t="n">
-        <v>58500</v>
-      </c>
-      <c r="AG9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3463,7 +3379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3479,155 +3395,150 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Mean Income</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Mode Income</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -3640,100 +3551,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="C2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="D2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="E2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="F2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="G2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="H2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="I2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="J2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="K2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="L2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="M2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="N2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="O2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="P2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="Q2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="R2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="S2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="T2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="U2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="V2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="W2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="X2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="Y2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="Z2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="AA2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="AB2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="AC2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="AD2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="AE2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
       <c r="AF2" t="n">
-        <v>1227</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1227</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="3">
@@ -3743,99 +3651,96 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4058.451507742461</v>
+        <v>3968.765345765346</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1752241238793806</v>
+        <v>24.61538461538462</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9755501222493888</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="E3" t="n">
-        <v>0.149959250203749</v>
+        <v>11.4996114996115</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5436022819885901</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1401792991035045</v>
+        <v>0.4965034965034965</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09861450692746536</v>
+        <v>0.4296814296814297</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07742461287693561</v>
+        <v>0.1771561771561772</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04156479217603912</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02526487367563162</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01059494702526487</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.09945609945609946</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1206193969030155</v>
+        <v>1.740481740481741</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4319478402607987</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="P3" t="n">
-        <v>0.117359413202934</v>
+        <v>0.09945609945609946</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07497962510187449</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="R3" t="n">
-        <v>0.05460472697636512</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03830480847595762</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01792991035044825</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.008149959250203748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>14.38383838383838</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7840260798696006</v>
+        <v>76.45687645687646</v>
       </c>
       <c r="X3" t="n">
-        <v>1.921760391198044</v>
+        <v>20.73038073038073</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.088834555827221</v>
+        <v>22.09401709401709</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.850040749796251</v>
+        <v>173.948717948718</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.308068459657702</v>
+        <v>28.98989898989899</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.225753871230644</v>
+        <v>6197312175.602176</v>
       </c>
       <c r="AC3" t="n">
-        <v>59220.0488997555</v>
+        <v>5092366776.412355</v>
       </c>
       <c r="AD3" t="n">
-        <v>53273.46631161369</v>
+        <v>8572435897.435898</v>
       </c>
       <c r="AE3" t="n">
-        <v>54201.30399348003</v>
+        <v>2361192019.716345</v>
       </c>
       <c r="AF3" t="n">
-        <v>35335.032245489</v>
-      </c>
-      <c r="AG3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3846,99 +3751,96 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1868.28711797503</v>
+        <v>1812.269001128942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3803136995776059</v>
+        <v>102.721507480444</v>
       </c>
       <c r="D4" t="n">
-        <v>3.970452296471301</v>
+        <v>4.191513174827762</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6844863865309933</v>
+        <v>35.26621429593094</v>
       </c>
       <c r="F4" t="n">
-        <v>2.125433892544572</v>
+        <v>3.386072400612434</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7179186204853854</v>
+        <v>2.145510388138414</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4246365345921397</v>
+        <v>1.81178665790661</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3470272986153258</v>
+        <v>1.095590054421414</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2191489463455329</v>
+        <v>0.3524346180215401</v>
       </c>
       <c r="K4" t="n">
-        <v>0.176555748226142</v>
+        <v>0.1667273776761295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1024267760122673</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.176252060905776</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5110111599506311</v>
+        <v>21.08247377670254</v>
       </c>
       <c r="O4" t="n">
-        <v>1.952759298580007</v>
+        <v>1.692416197597389</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5274675906009796</v>
+        <v>1.334804352270801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.405007274913643</v>
+        <v>0.554425640693219</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3371281206499085</v>
+        <v>1.449486150678957</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2844525866701158</v>
+        <v>0.4341860750542871</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1605596400712598</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08994515461151698</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>32.79568666208919</v>
       </c>
       <c r="W4" t="n">
-        <v>2.515817321548628</v>
+        <v>101.5580159510894</v>
       </c>
       <c r="X4" t="n">
-        <v>5.054231909376962</v>
+        <v>40.02053751644673</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.214125257232537</v>
+        <v>39.44089839886785</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.545252353219247</v>
+        <v>102.5760599162919</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.367583977574189</v>
+        <v>42.63429854782122</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.998431642471632</v>
+        <v>1540267327.379799</v>
       </c>
       <c r="AC4" t="n">
-        <v>15996.43023995511</v>
+        <v>1356634206.053058</v>
       </c>
       <c r="AD4" t="n">
-        <v>15600.91356417199</v>
+        <v>4315303592.114497</v>
       </c>
       <c r="AE4" t="n">
-        <v>36001.0906794361</v>
+        <v>704183539.1316756</v>
       </c>
       <c r="AF4" t="n">
-        <v>11826.64286397725</v>
-      </c>
-      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4027,21 +3929,18 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1414870000</v>
       </c>
       <c r="AC5" t="n">
-        <v>15100</v>
+        <v>1096616972.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>12901.37615</v>
+        <v>824999999.9999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>7499.999999999999</v>
+        <v>482931260.5801666</v>
       </c>
       <c r="AF5" t="n">
-        <v>8215.843022999999</v>
-      </c>
-      <c r="AG5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4052,7 +3951,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2848.5</v>
+        <v>2839</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -4124,27 +4023,24 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>4928620000</v>
       </c>
       <c r="AC6" t="n">
-        <v>48400.00000000001</v>
+        <v>3979008838.65</v>
       </c>
       <c r="AD6" t="n">
-        <v>42812.5</v>
+        <v>3575000000</v>
       </c>
       <c r="AE6" t="n">
-        <v>32500</v>
+        <v>1792267536.364679</v>
       </c>
       <c r="AF6" t="n">
-        <v>27434.164935</v>
-      </c>
-      <c r="AG6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4155,7 +4051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4048</v>
+        <v>4006</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -4218,36 +4114,33 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>6371600000</v>
       </c>
       <c r="AC7" t="n">
-        <v>54900</v>
+        <v>5170833333.050001</v>
       </c>
       <c r="AD7" t="n">
-        <v>48571.42856999999</v>
+        <v>12100000000</v>
       </c>
       <c r="AE7" t="n">
-        <v>32500</v>
+        <v>2351219512</v>
       </c>
       <c r="AF7" t="n">
-        <v>31333.33333</v>
-      </c>
-      <c r="AG7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4258,7 +4151,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5350</v>
+        <v>5197</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4321,36 +4214,33 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="X8" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>7421040000</v>
       </c>
       <c r="AC8" t="n">
-        <v>68400</v>
+        <v>6205000000</v>
       </c>
       <c r="AD8" t="n">
-        <v>61449.579835</v>
+        <v>12100000000</v>
       </c>
       <c r="AE8" t="n">
-        <v>110000</v>
+        <v>2891899274.397814</v>
       </c>
       <c r="AF8" t="n">
-        <v>40833.33333</v>
-      </c>
-      <c r="AG8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4361,99 +4251,96 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7849</v>
+        <v>7854</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3312</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>960</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>704</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="W9" t="n">
-        <v>34</v>
+        <v>720</v>
       </c>
       <c r="X9" t="n">
-        <v>57</v>
+        <v>280</v>
       </c>
       <c r="Y9" t="n">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="Z9" t="n">
-        <v>33</v>
+        <v>880</v>
       </c>
       <c r="AA9" t="n">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="AB9" t="n">
-        <v>37</v>
+        <v>8779690000</v>
       </c>
       <c r="AC9" t="n">
-        <v>93700</v>
+        <v>7225000000</v>
       </c>
       <c r="AD9" t="n">
-        <v>85000</v>
+        <v>12100000000</v>
       </c>
       <c r="AE9" t="n">
-        <v>110000</v>
+        <v>3447701688.043152</v>
       </c>
       <c r="AF9" t="n">
-        <v>58653.84615</v>
-      </c>
-      <c r="AG9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4468,7 +4355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4484,155 +4371,150 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Population aged 65+</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Population aged 65+</t>
+          <t>Females aged 65-69</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65-69</t>
+          <t>Females aged 65+</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 65+</t>
+          <t>Females aged 70-74</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 70-74</t>
+          <t>Females aged 75-79</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 75-79</t>
+          <t>Females aged 80-84</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 80-84</t>
+          <t>Females aged 85-89</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 85-89</t>
+          <t>Females aged 90-94</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 90-94</t>
+          <t>Females aged 95_99</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 95_99</t>
+          <t>Females aged 100+</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 100+</t>
+          <t>Males aged 65-69</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65-69</t>
+          <t>Males aged 65+</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 65+</t>
+          <t>Males aged 70-74</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 70-74</t>
+          <t>Males aged 75-79</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 75-79</t>
+          <t>Males aged 80-84</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 80-84</t>
+          <t>Males aged 85-89</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 85-89</t>
+          <t>Males aged 90-94</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 90-94</t>
+          <t>Males aged 95-99</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 95-99</t>
+          <t>Males aged 100+</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 100+</t>
+          <t>Females aged under 25</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Females aged under 25</t>
+          <t>Females aged 25-44</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 25-44</t>
+          <t>Females aged 45-65</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Females aged 45-65</t>
+          <t>Males aged under 25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Males aged under 25</t>
+          <t>Males aged 25-44</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 25-44</t>
+          <t>Males aged 45-65</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Males aged 45-65</t>
+          <t>Mean Income</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Mean Income</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Mode Income</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Mode Income</t>
+          <t>Lower Quartile</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Lower Quartile</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Clusters</t>
         </is>
@@ -4645,100 +4527,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="C2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="D2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="E2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="F2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="G2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="H2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="I2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="J2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="K2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="L2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="M2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="N2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="O2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="P2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="Q2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="R2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="S2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="U2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="V2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="W2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="X2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="Z2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="AA2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="AB2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="AC2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="AD2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="AE2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
       <c r="AF2" t="n">
-        <v>1517</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1517</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3">
@@ -4748,99 +4627,96 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3454.144363876071</v>
+        <v>3593.343220338983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03559657218193803</v>
+        <v>363.7372881355932</v>
       </c>
       <c r="D3" t="n">
-        <v>12.00461437046803</v>
+        <v>13.56991525423729</v>
       </c>
       <c r="E3" t="n">
-        <v>1.763348714568227</v>
+        <v>104.1949152542373</v>
       </c>
       <c r="F3" t="n">
-        <v>6.386947923533289</v>
+        <v>9.788135593220339</v>
       </c>
       <c r="G3" t="n">
-        <v>1.493078444297957</v>
+        <v>3.279661016949153</v>
       </c>
       <c r="H3" t="n">
-        <v>1.179960448253131</v>
+        <v>1.557203389830508</v>
       </c>
       <c r="I3" t="n">
-        <v>1.03295978905735</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5807514831905076</v>
+        <v>0.2192796610169492</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2478576137112722</v>
+        <v>0.02754237288135593</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08042188529993408</v>
+        <v>0.00211864406779661</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008569545154911009</v>
+        <v>7.432203389830509</v>
       </c>
       <c r="N3" t="n">
-        <v>1.514831905075807</v>
+        <v>78.30508474576271</v>
       </c>
       <c r="O3" t="n">
-        <v>5.61766644693474</v>
+        <v>7.255296610169491</v>
       </c>
       <c r="P3" t="n">
-        <v>1.364535266974291</v>
+        <v>2.73728813559322</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.084377059986816</v>
+        <v>1.067796610169492</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8661832564271589</v>
+        <v>1.927966101694915</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5187870797626896</v>
+        <v>0.3336864406779661</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2261041529334212</v>
+        <v>0.01588983050847458</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04087013843111404</v>
+        <v>0.001059322033898305</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001977587343441002</v>
+        <v>201.3898305084746</v>
       </c>
       <c r="W3" t="n">
-        <v>8.367831245880026</v>
+        <v>566.4406779661017</v>
       </c>
       <c r="X3" t="n">
-        <v>13.22280817402769</v>
+        <v>202.5423728813559</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.500329597890573</v>
+        <v>214.698093220339</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.977587343441002</v>
+        <v>750.0508474576271</v>
       </c>
       <c r="AA3" t="n">
-        <v>15.46077785102175</v>
+        <v>215.2065677966102</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.367831245880026</v>
+        <v>5298288328.380785</v>
       </c>
       <c r="AC3" t="n">
-        <v>49030.45472009887</v>
+        <v>4257448599.17214</v>
       </c>
       <c r="AD3" t="n">
-        <v>42815.79951198418</v>
+        <v>6731965042.372881</v>
       </c>
       <c r="AE3" t="n">
-        <v>41949.57152274226</v>
+        <v>1899250599.36324</v>
       </c>
       <c r="AF3" t="n">
-        <v>27146.8186291325</v>
-      </c>
-      <c r="AG3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4851,99 +4727,96 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2727.499044519072</v>
+        <v>2536.07869979945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1853431978543611</v>
+        <v>193.2653570807998</v>
       </c>
       <c r="D4" t="n">
-        <v>5.370750925236425</v>
+        <v>8.333287170879446</v>
       </c>
       <c r="E4" t="n">
-        <v>1.151470949974232</v>
+        <v>69.11797079748089</v>
       </c>
       <c r="F4" t="n">
-        <v>3.179736880396355</v>
+        <v>6.879482698887215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.960697760543971</v>
+        <v>5.081746333914543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7345016069225653</v>
+        <v>3.313411645206938</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8098796331244684</v>
+        <v>2.347951899139991</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7040019148512477</v>
+        <v>0.8287062769757031</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4628732803307725</v>
+        <v>0.2332032876874013</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2720349023972858</v>
+        <v>0.04600431894363927</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09220473059262424</v>
+        <v>4.234842725885999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9667685074800861</v>
+        <v>47.95022312529813</v>
       </c>
       <c r="O4" t="n">
-        <v>2.762623525960197</v>
+        <v>5.724635004544736</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8879923092395635</v>
+        <v>4.47057629921608</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6973374430267053</v>
+        <v>2.518154868474452</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6833079563627974</v>
+        <v>4.995342655401431</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7037004378414026</v>
+        <v>1.701439965029198</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4801098403511461</v>
+        <v>0.2178698876757794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.198054607580717</v>
+        <v>0.03254722774520596</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04444072894498982</v>
+        <v>169.4431793585931</v>
       </c>
       <c r="W4" t="n">
-        <v>5.932711416587352</v>
+        <v>447.1007590419783</v>
       </c>
       <c r="X4" t="n">
-        <v>8.946067178737072</v>
+        <v>114.4061077107865</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.282722487825573</v>
+        <v>186.3052289713456</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.345860531897014</v>
+        <v>639.5366276876612</v>
       </c>
       <c r="AA4" t="n">
-        <v>10.89337009650624</v>
+        <v>120.6994932750785</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.842421258453924</v>
+        <v>1517734745.732846</v>
       </c>
       <c r="AC4" t="n">
-        <v>15382.44436995014</v>
+        <v>1316873449.472353</v>
       </c>
       <c r="AD4" t="n">
-        <v>14518.01516136724</v>
+        <v>4520322448.33847</v>
       </c>
       <c r="AE4" t="n">
-        <v>34454.76549886035</v>
+        <v>639637801.9840269</v>
       </c>
       <c r="AF4" t="n">
-        <v>10012.80360301348</v>
-      </c>
-      <c r="AG4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4954,19 +4827,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -5023,30 +4896,27 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>1555420000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12600</v>
+        <v>1131710310.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>10805.86081</v>
+        <v>824999999.9999999</v>
       </c>
       <c r="AE5" t="n">
-        <v>7499.999999999999</v>
+        <v>490280690.0693128</v>
       </c>
       <c r="AF5" t="n">
-        <v>6946.331522</v>
-      </c>
-      <c r="AG5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5057,52 +4927,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1030</v>
+        <v>1268.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>8</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -5117,39 +4987,36 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="n">
-        <v>5</v>
+        <v>352</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="AB6" t="n">
-        <v>6</v>
+        <v>4129827500</v>
       </c>
       <c r="AC6" t="n">
-        <v>35900</v>
+        <v>3252727550.75</v>
       </c>
       <c r="AD6" t="n">
-        <v>30546.21849</v>
+        <v>2475000000</v>
       </c>
       <c r="AE6" t="n">
-        <v>17500</v>
+        <v>1403061771.693319</v>
       </c>
       <c r="AF6" t="n">
-        <v>18691.27517</v>
-      </c>
-      <c r="AG6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5160,28 +5027,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2297</v>
+        <v>2959.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -5193,22 +5060,22 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -5220,39 +5087,36 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>400</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.999999999999999</v>
+        <v>528</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>5518930000</v>
       </c>
       <c r="AC7" t="n">
-        <v>48800</v>
+        <v>4399825445.075</v>
       </c>
       <c r="AD7" t="n">
-        <v>42587.41259</v>
+        <v>4675000000</v>
       </c>
       <c r="AE7" t="n">
-        <v>32500</v>
+        <v>1943656122.51553</v>
       </c>
       <c r="AF7" t="n">
-        <v>26436.17021</v>
-      </c>
-      <c r="AG7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5263,58 +5127,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6745</v>
+        <v>6031.25</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="O8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -5323,39 +5187,36 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>720</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>968</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>6493410000</v>
       </c>
       <c r="AC8" t="n">
-        <v>61000</v>
+        <v>5271043943.0125</v>
       </c>
       <c r="AD8" t="n">
-        <v>53682.00837</v>
+        <v>12100000000</v>
       </c>
       <c r="AE8" t="n">
-        <v>42500</v>
+        <v>2391332317.612525</v>
       </c>
       <c r="AF8" t="n">
-        <v>34280.23033</v>
-      </c>
-      <c r="AG8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5366,101 +5227,1365 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7814</v>
+        <v>7817</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>1728</v>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>560</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
+        <v>21</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="O9" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="P9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>52</v>
+      </c>
+      <c r="S9" t="n">
         <v>9</v>
       </c>
-      <c r="Q9" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>1612</v>
       </c>
       <c r="W9" t="n">
-        <v>52</v>
+        <v>4000</v>
       </c>
       <c r="X9" t="n">
-        <v>80</v>
+        <v>1160</v>
       </c>
       <c r="Y9" t="n">
-        <v>40</v>
+        <v>1650</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>5368.000000000001</v>
       </c>
       <c r="AA9" t="n">
-        <v>83</v>
+        <v>1435</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>8404890000</v>
       </c>
       <c r="AC9" t="n">
-        <v>89400</v>
+        <v>6980303030.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>82946.42857</v>
+        <v>12100000000</v>
       </c>
       <c r="AE9" t="n">
-        <v>110000</v>
+        <v>3351738453.526725</v>
       </c>
       <c r="AF9" t="n">
-        <v>57727.27273</v>
-      </c>
-      <c r="AG9" t="n">
         <v>4</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Population aged 65+</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 65-69</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 65+</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 70-74</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 75-79</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 80-84</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 85-89</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 90-94</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 95_99</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 100+</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 65-69</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 65+</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 70-74</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 75-79</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 80-84</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 85-89</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 90-94</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 95-99</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 100+</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged under 25</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 25-44</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 45-65</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged under 25</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 25-44</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 45-65</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Income</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Median Income</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Mode Income</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Quartile</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>OA11CD</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Clusters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>freq</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Population aged 65+</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 65-69</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 65+</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 70-74</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 75-79</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 80-84</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 85-89</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 90-94</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 95_99</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 100+</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 65-69</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 65+</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 70-74</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 75-79</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 80-84</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 85-89</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 90-94</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 95-99</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 100+</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged under 25</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 25-44</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 45-65</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged under 25</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 25-44</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 45-65</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Income</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Median Income</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Mode Income</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Quartile</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>OA11CD</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Clusters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>freq</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Population aged 65+</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 65-69</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 65+</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 70-74</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 75-79</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 80-84</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 85-89</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 90-94</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 95_99</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 100+</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 65-69</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 65+</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 70-74</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 75-79</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 80-84</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 85-89</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 90-94</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 95-99</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 100+</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged under 25</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 25-44</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Females aged 45-65</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged under 25</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 25-44</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Males aged 45-65</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Mean Income</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Median Income</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Mode Income</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Quartile</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>OA11CD</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Clusters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>unique</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>freq</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
